--- a/NewKinectProject/Resultats.xlsx
+++ b/NewKinectProject/Resultats.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -366,17 +366,17 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -384,7 +384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -429,22 +429,22 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -452,14 +452,14 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -474,9 +474,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
